--- a/Words.xlsx
+++ b/Words.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VP\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Words of the Day</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>It is is all too neoteric and light for my humour</t>
+  </si>
+  <si>
+    <t>intial commit</t>
   </si>
 </sst>
 </file>
@@ -306,6 +309,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -315,7 +319,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T11"/>
+  <dimension ref="A2:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,31 +616,31 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="J4" s="7" t="s">
+      <c r="E4" s="6"/>
+      <c r="J4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -660,7 +663,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -678,11 +681,11 @@
       <c r="T7" s="2"/>
     </row>
     <row r="10" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="I10" s="8" t="s">
+      <c r="E10" s="7"/>
+      <c r="I10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -700,7 +703,7 @@
       <c r="T10" s="2"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -716,6 +719,11 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
